--- a/app/webroot/img/dr_sum.xlsx
+++ b/app/webroot/img/dr_sum.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="22">
   <si>
     <t>DATE</t>
   </si>
@@ -66,54 +66,6 @@
   </si>
   <si>
     <t>% of Target</t>
-  </si>
-  <si>
-    <t>ab</t>
-  </si>
-  <si>
-    <t>customer 1</t>
-  </si>
-  <si>
-    <t>customer 2</t>
-  </si>
-  <si>
-    <t>customer 3</t>
-  </si>
-  <si>
-    <t>customer 4</t>
-  </si>
-  <si>
-    <t>customer 5</t>
-  </si>
-  <si>
-    <t>customer 6</t>
-  </si>
-  <si>
-    <t>customer 7</t>
-  </si>
-  <si>
-    <t>customer 8</t>
-  </si>
-  <si>
-    <t>customer 9</t>
-  </si>
-  <si>
-    <t>customer 10</t>
-  </si>
-  <si>
-    <t>customer 11</t>
-  </si>
-  <si>
-    <t>customer 12</t>
-  </si>
-  <si>
-    <t>customer 13</t>
-  </si>
-  <si>
-    <t>customer 14</t>
-  </si>
-  <si>
-    <t>customer 15</t>
   </si>
 </sst>
 </file>
@@ -191,7 +143,7 @@
       <patternFill patternType="none"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -272,17 +224,6 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -294,7 +235,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -355,19 +296,13 @@
     <xf numFmtId="164" fontId="7" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="167" fontId="2" fillId="2" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="2" fillId="2" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="2" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
